--- a/data/trans_orig/P14_x_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14_x_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CB88E8F-6DC1-4352-BAC0-25BD996148D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E817D9-03D3-494C-9DBE-727D7468B530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{706584A6-FD3C-45A1-A607-7EEC6F3DBA9F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE5DC16F-F926-4F0D-8677-1BDA82C13D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="317">
   <si>
     <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -266,724 +266,730 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>2,61%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>97,38%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
   </si>
   <si>
     <t>6,35%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>99,2%</t>
   </si>
   <si>
     <t>93,62%</t>
   </si>
   <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>11,07%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>88,93%</t>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
   <si>
     <t>94,65%</t>
   </si>
   <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
   </si>
   <si>
     <t>94,02%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
   </si>
   <si>
     <t>17,69%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
   </si>
   <si>
     <t>90,37%</t>
   </si>
   <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>82,31%</t>
   </si>
   <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>86,35%</t>
   </si>
   <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>11,18%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
   </si>
   <si>
     <t>93,45%</t>
   </si>
   <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
+    <t>10,72%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
+    <t>89,28%</t>
   </si>
   <si>
     <t>90,78%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B6C6E1-BBD8-4921-8902-56E1B3201CC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3126F3-CBFF-4671-BBFB-73B759AA90B7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2527,7 +2533,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2578,7 +2584,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2614,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2CB2D5-75CF-40B8-AAEC-587F2C7CEED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AF3DB0-F635-40A5-9525-B6B21B210539}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3833,7 +3839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7E85A0-B16D-496D-8F53-EE7A6B071594}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D208C5F-419E-46EA-BFF8-68679666883A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3960,10 +3966,10 @@
         <v>74</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3972,13 +3978,13 @@
         <v>12125</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3987,13 +3993,13 @@
         <v>16517</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4014,13 @@
         <v>415071</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="H5" s="7">
         <v>393</v>
@@ -4023,13 +4029,13 @@
         <v>383630</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M5" s="7">
         <v>782</v>
@@ -4038,13 +4044,13 @@
         <v>798701</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,13 +4118,13 @@
         <v>6902</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4127,13 +4133,13 @@
         <v>13644</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4142,13 +4148,13 @@
         <v>20546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4169,13 @@
         <v>583594</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -4178,13 +4184,13 @@
         <v>549900</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>1125</v>
@@ -4193,13 +4199,13 @@
         <v>1133494</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4273,13 @@
         <v>16452</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4282,13 +4288,13 @@
         <v>44951</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4297,13 +4303,13 @@
         <v>61404</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4324,13 @@
         <v>652645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -4333,13 +4339,13 @@
         <v>616435</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>1240</v>
@@ -4348,13 +4354,13 @@
         <v>1269079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4428,13 @@
         <v>26074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4437,13 +4443,13 @@
         <v>75994</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
         <v>95</v>
@@ -4452,13 +4458,13 @@
         <v>102068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4479,13 @@
         <v>619974</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -4488,28 +4494,28 @@
         <v>573083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>1089</v>
       </c>
       <c r="N14" s="7">
-        <v>1193057</v>
+        <v>1193058</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,7 +4557,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4577,13 +4583,13 @@
         <v>31679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -4592,13 +4598,13 @@
         <v>88606</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -4607,13 +4613,13 @@
         <v>120285</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4634,13 @@
         <v>446239</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>354</v>
@@ -4643,13 +4649,13 @@
         <v>408243</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>751</v>
@@ -4658,13 +4664,13 @@
         <v>854482</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,13 +4738,13 @@
         <v>25071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -4747,13 +4753,13 @@
         <v>125874</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M19" s="7">
         <v>135</v>
@@ -4762,13 +4768,13 @@
         <v>150945</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4789,13 @@
         <v>566257</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H20" s="7">
         <v>548</v>
@@ -4798,13 +4804,13 @@
         <v>652057</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
         <v>1147</v>
@@ -4813,13 +4819,13 @@
         <v>1218314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +4893,13 @@
         <v>110570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H22" s="7">
         <v>328</v>
@@ -4902,13 +4908,13 @@
         <v>361195</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M22" s="7">
         <v>435</v>
@@ -4917,13 +4923,13 @@
         <v>471765</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +4944,13 @@
         <v>3283780</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H23" s="7">
         <v>3010</v>
@@ -4953,13 +4959,13 @@
         <v>3183347</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M23" s="7">
         <v>6134</v>
@@ -4968,13 +4974,13 @@
         <v>6467127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,7 +5058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D403DE-2E67-4C8F-969F-AFA086BA20B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E438E893-B2FE-41A0-BFE2-82879DECEA87}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5069,7 +5075,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5176,13 +5182,13 @@
         <v>8711</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5191,13 +5197,13 @@
         <v>22634</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5206,13 +5212,13 @@
         <v>31345</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5233,13 @@
         <v>368968</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -5242,13 +5248,13 @@
         <v>332323</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
@@ -5257,13 +5263,13 @@
         <v>701291</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5337,13 @@
         <v>11811</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5346,13 +5352,13 @@
         <v>37784</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -5361,13 +5367,13 @@
         <v>49594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5388,13 @@
         <v>416585</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>430</v>
@@ -5397,13 +5403,13 @@
         <v>461431</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>722</v>
@@ -5412,13 +5418,13 @@
         <v>878017</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5492,13 @@
         <v>33318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -5501,13 +5507,13 @@
         <v>45987</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -5516,13 +5522,13 @@
         <v>79305</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5543,13 @@
         <v>523934</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
         <v>780</v>
@@ -5552,13 +5558,13 @@
         <v>564460</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>1297</v>
@@ -5567,13 +5573,13 @@
         <v>1088394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,13 +5647,13 @@
         <v>51923</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -5656,13 +5662,13 @@
         <v>97118</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -5671,13 +5677,13 @@
         <v>149041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5698,13 @@
         <v>672067</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H14" s="7">
         <v>992</v>
@@ -5707,28 +5713,28 @@
         <v>650143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="M14" s="7">
         <v>1607</v>
       </c>
       <c r="N14" s="7">
-        <v>1322211</v>
+        <v>1322210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,7 +5776,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5796,13 +5802,13 @@
         <v>57815</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>172</v>
@@ -5811,13 +5817,13 @@
         <v>105612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M16" s="7">
         <v>232</v>
@@ -5826,13 +5832,13 @@
         <v>163427</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,13 +5853,13 @@
         <v>542342</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H17" s="7">
         <v>830</v>
@@ -5862,13 +5868,13 @@
         <v>491451</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M17" s="7">
         <v>1433</v>
@@ -5877,13 +5883,13 @@
         <v>1033793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,16 +5954,16 @@
         <v>69</v>
       </c>
       <c r="D19" s="7">
-        <v>45689</v>
+        <v>45690</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
         <v>261</v>
@@ -5966,13 +5972,13 @@
         <v>147023</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>330</v>
@@ -5981,13 +5987,13 @@
         <v>192713</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +6008,13 @@
         <v>652065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H20" s="7">
         <v>1447</v>
@@ -6017,13 +6023,13 @@
         <v>879614</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M20" s="7">
         <v>2406</v>
@@ -6032,13 +6038,13 @@
         <v>1531679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,7 +6056,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6106,13 +6112,13 @@
         <v>209266</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H22" s="7">
         <v>692</v>
@@ -6121,13 +6127,13 @@
         <v>456158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>915</v>
@@ -6136,13 +6142,13 @@
         <v>665425</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,13 +6163,13 @@
         <v>3175962</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>308</v>
+        <v>87</v>
       </c>
       <c r="H23" s="7">
         <v>4675</v>
@@ -6172,28 +6178,28 @@
         <v>3379423</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M23" s="7">
         <v>7828</v>
       </c>
       <c r="N23" s="7">
-        <v>6555384</v>
+        <v>6555383</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,7 +6241,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P14_x_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14_x_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E817D9-03D3-494C-9DBE-727D7468B530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B4217E-EBEE-4D4D-8CA5-461FD4EA959F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DE5DC16F-F926-4F0D-8677-1BDA82C13D3A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD5DA578-3EAF-4492-9E91-DEB2F2F78837}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -260,721 +260,721 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
   </si>
   <si>
     <t>88,11%</t>
@@ -1401,7 +1401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3126F3-CBFF-4671-BBFB-73B759AA90B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCC814D-E91C-4FE0-A246-397A3566EC04}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2503,7 +2503,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2554,7 +2554,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2620,7 +2620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AF3DB0-F635-40A5-9525-B6B21B210539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8D4ACE-D1CE-4AD0-9FBD-F1EAFA295C50}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3839,7 +3839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D208C5F-419E-46EA-BFF8-68679666883A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B8D5EA-62B9-4E83-BE4B-1DFBEF561014}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4121,10 +4121,10 @@
         <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4133,13 +4133,13 @@
         <v>13644</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4148,13 +4148,13 @@
         <v>20546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4169,13 @@
         <v>583594</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -4184,13 +4184,13 @@
         <v>549900</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>1125</v>
@@ -4199,13 +4199,13 @@
         <v>1133494</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4273,13 @@
         <v>16452</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4288,13 +4288,13 @@
         <v>44951</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4303,13 +4303,13 @@
         <v>61404</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4324,13 @@
         <v>652645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -4339,13 +4339,13 @@
         <v>616435</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
         <v>1240</v>
@@ -4354,13 +4354,13 @@
         <v>1269079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4428,13 @@
         <v>26074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4443,13 +4443,13 @@
         <v>75994</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>95</v>
@@ -4458,13 +4458,13 @@
         <v>102068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4479,13 @@
         <v>619974</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -4494,28 +4494,28 @@
         <v>573083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>1089</v>
       </c>
       <c r="N14" s="7">
-        <v>1193058</v>
+        <v>1193057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,7 +4557,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4583,13 +4583,13 @@
         <v>31679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -4598,13 +4598,13 @@
         <v>88606</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -4613,13 +4613,13 @@
         <v>120285</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4634,13 @@
         <v>446239</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>354</v>
@@ -4649,13 +4649,13 @@
         <v>408243</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>751</v>
@@ -4664,13 +4664,13 @@
         <v>854482</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4738,13 @@
         <v>25071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -4753,13 +4753,13 @@
         <v>125874</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>135</v>
@@ -4768,13 +4768,13 @@
         <v>150945</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4789,13 @@
         <v>566257</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H20" s="7">
         <v>548</v>
@@ -4804,13 +4804,13 @@
         <v>652057</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>1147</v>
@@ -4819,13 +4819,13 @@
         <v>1218314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4893,13 @@
         <v>110570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H22" s="7">
         <v>328</v>
@@ -4908,7 +4908,7 @@
         <v>361195</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>184</v>
@@ -4923,7 +4923,7 @@
         <v>471765</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>186</v>
@@ -4950,7 +4950,7 @@
         <v>189</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>3010</v>
@@ -4959,13 +4959,13 @@
         <v>3183347</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M23" s="7">
         <v>6134</v>
@@ -4974,13 +4974,13 @@
         <v>6467127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,7 +5058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E438E893-B2FE-41A0-BFE2-82879DECEA87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E935B1-421A-456D-BF43-D7EB07C8492C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5075,7 +5075,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5182,13 +5182,13 @@
         <v>8711</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5197,13 +5197,13 @@
         <v>22634</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5212,13 +5212,13 @@
         <v>31345</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5233,13 @@
         <v>368968</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -5248,13 +5248,13 @@
         <v>332323</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
@@ -5263,13 +5263,13 @@
         <v>701291</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5337,13 @@
         <v>11811</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5352,13 +5352,13 @@
         <v>37784</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -5367,13 +5367,13 @@
         <v>49594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5388,13 @@
         <v>416585</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H8" s="7">
         <v>430</v>
@@ -5403,13 +5403,13 @@
         <v>461431</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="M8" s="7">
         <v>722</v>
@@ -5418,13 +5418,13 @@
         <v>878017</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5492,13 @@
         <v>33318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -5507,13 +5507,13 @@
         <v>45987</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -5522,13 +5522,13 @@
         <v>79305</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5543,13 @@
         <v>523934</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
         <v>780</v>
@@ -5558,13 +5558,13 @@
         <v>564460</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
         <v>1297</v>
@@ -5573,13 +5573,13 @@
         <v>1088394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5647,13 @@
         <v>51923</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -5662,13 +5662,13 @@
         <v>97118</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -5677,13 +5677,13 @@
         <v>149041</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5698,13 @@
         <v>672067</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
         <v>992</v>
@@ -5713,13 +5713,13 @@
         <v>650143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>1607</v>
@@ -5728,13 +5728,13 @@
         <v>1322210</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,13 +5802,13 @@
         <v>57815</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>172</v>
@@ -5817,13 +5817,13 @@
         <v>105612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>232</v>
@@ -5832,13 +5832,13 @@
         <v>163427</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5853,13 @@
         <v>542342</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
         <v>830</v>
@@ -5868,13 +5868,13 @@
         <v>491451</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>1433</v>
@@ -5883,13 +5883,13 @@
         <v>1033793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5957,13 @@
         <v>45690</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H19" s="7">
         <v>261</v>
@@ -5972,13 +5972,13 @@
         <v>147023</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M19" s="7">
         <v>330</v>
@@ -5987,13 +5987,13 @@
         <v>192713</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6008,13 @@
         <v>652065</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>1447</v>
@@ -6023,13 +6023,13 @@
         <v>879614</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M20" s="7">
         <v>2406</v>
@@ -6038,13 +6038,13 @@
         <v>1531679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6112,13 @@
         <v>209266</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>186</v>
+        <v>301</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>692</v>
@@ -6127,13 +6127,13 @@
         <v>456158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M22" s="7">
         <v>915</v>
@@ -6142,13 +6142,13 @@
         <v>665425</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6163,13 @@
         <v>3175962</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>195</v>
+        <v>309</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H23" s="7">
         <v>4675</v>
@@ -6181,7 +6181,7 @@
         <v>312</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>313</v>

--- a/data/trans_orig/P14_x_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14_x_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20B4217E-EBEE-4D4D-8CA5-461FD4EA959F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F93788D-19F3-45F9-898C-D2700DBBDB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FD5DA578-3EAF-4492-9E91-DEB2F2F78837}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6851A4BC-ADC4-4CBD-8C4A-DFE0C213810D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="315">
   <si>
     <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -266,64 +266,55 @@
     <t>1,05%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>2,61%</t>
   </si>
   <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>97,39%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>2,5%</t>
+    <t>2,22%</t>
   </si>
   <si>
     <t>2,42%</t>
@@ -338,16 +329,10 @@
     <t>1,78%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>99,5%</t>
@@ -365,262 +350,271 @@
     <t>98,22%</t>
   </si>
   <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>97,38%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>3,61%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>94,16%</t>
   </si>
   <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
     <t>97,34%</t>
   </si>
   <si>
     <t>88,29%</t>
   </si>
   <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>92,12%</t>
   </si>
   <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>17,83%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>Población con enfermedades crónicas de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
@@ -629,367 +623,367 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
   </si>
   <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>93,62%</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>95,72%</t>
   </si>
   <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>2,76%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>11,3%</t>
+    <t>11,07%</t>
   </si>
   <si>
     <t>5,35%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>88,7%</t>
+    <t>88,93%</t>
   </si>
   <si>
     <t>94,65%</t>
   </si>
   <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>5,98%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>94,02%</t>
   </si>
   <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>9,63%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
   </si>
   <si>
     <t>17,69%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
   </si>
   <si>
     <t>90,37%</t>
   </si>
   <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>82,31%</t>
   </si>
   <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
   </si>
   <si>
     <t>86,35%</t>
   </si>
   <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
   </si>
   <si>
     <t>6,55%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
   </si>
   <si>
     <t>11,18%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>93,45%</t>
   </si>
   <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>10,72%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>88,11%</t>
   </si>
   <si>
-    <t>89,28%</t>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>90,78%</t>
   </si>
   <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCC814D-E91C-4FE0-A246-397A3566EC04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABCF469-7286-4A87-9D7B-74A955E787C4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2503,7 +2497,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2533,7 +2527,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2554,7 +2548,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2584,7 +2578,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2620,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8D4ACE-D1CE-4AD0-9FBD-F1EAFA295C50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233E4EAE-E7EE-48B7-8C8C-285F3F80D285}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3839,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B8D5EA-62B9-4E83-BE4B-1DFBEF561014}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3CA14E-84CC-4C2B-96CA-B85E5D3998D5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3966,10 +3960,10 @@
         <v>74</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -3978,13 +3972,13 @@
         <v>12125</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3993,13 +3987,13 @@
         <v>16517</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4008,13 @@
         <v>415071</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="H5" s="7">
         <v>393</v>
@@ -4029,13 +4023,13 @@
         <v>383630</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M5" s="7">
         <v>782</v>
@@ -4044,13 +4038,13 @@
         <v>798701</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4112,13 @@
         <v>6902</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4133,13 +4127,13 @@
         <v>13644</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4148,13 +4142,13 @@
         <v>20546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4163,13 @@
         <v>583594</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
         <v>565</v>
@@ -4184,13 +4178,13 @@
         <v>549900</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M8" s="7">
         <v>1125</v>
@@ -4199,13 +4193,13 @@
         <v>1133494</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4267,13 @@
         <v>16452</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H10" s="7">
         <v>47</v>
@@ -4288,13 +4282,13 @@
         <v>44951</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4303,13 +4297,13 @@
         <v>61404</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,13 +4318,13 @@
         <v>652645</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H11" s="7">
         <v>618</v>
@@ -4339,13 +4333,13 @@
         <v>616435</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M11" s="7">
         <v>1240</v>
@@ -4354,13 +4348,13 @@
         <v>1269079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4422,13 @@
         <v>26074</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>70</v>
@@ -4443,13 +4437,13 @@
         <v>75994</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>95</v>
@@ -4458,13 +4452,13 @@
         <v>102068</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,13 +4473,13 @@
         <v>619974</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -4494,13 +4488,13 @@
         <v>573083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>1089</v>
@@ -4509,13 +4503,13 @@
         <v>1193057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4577,13 @@
         <v>31679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H16" s="7">
         <v>79</v>
@@ -4598,13 +4592,13 @@
         <v>88606</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -4613,13 +4607,13 @@
         <v>120285</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4628,13 @@
         <v>446239</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H17" s="7">
         <v>354</v>
@@ -4649,13 +4643,13 @@
         <v>408243</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>751</v>
@@ -4664,13 +4658,13 @@
         <v>854482</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +4732,13 @@
         <v>25071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H19" s="7">
         <v>107</v>
@@ -4753,13 +4747,13 @@
         <v>125874</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M19" s="7">
         <v>135</v>
@@ -4768,13 +4762,13 @@
         <v>150945</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4789,13 +4783,13 @@
         <v>566257</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
         <v>548</v>
@@ -4804,13 +4798,13 @@
         <v>652057</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M20" s="7">
         <v>1147</v>
@@ -4819,13 +4813,13 @@
         <v>1218314</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4887,13 @@
         <v>110570</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H22" s="7">
         <v>328</v>
@@ -4908,13 +4902,13 @@
         <v>361195</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M22" s="7">
         <v>435</v>
@@ -4923,13 +4917,13 @@
         <v>471765</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4944,13 +4938,13 @@
         <v>3283780</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="H23" s="7">
         <v>3010</v>
@@ -4959,13 +4953,13 @@
         <v>3183347</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M23" s="7">
         <v>6134</v>
@@ -4974,13 +4968,13 @@
         <v>6467127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5058,7 +5052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E935B1-421A-456D-BF43-D7EB07C8492C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BCBCA3-5E67-473A-A47A-0A16B0DAA610}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5075,7 +5069,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5182,13 +5176,13 @@
         <v>8711</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5197,13 +5191,13 @@
         <v>22634</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5212,13 +5206,13 @@
         <v>31345</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5227,13 @@
         <v>368968</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -5248,13 +5242,13 @@
         <v>332323</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
@@ -5263,13 +5257,13 @@
         <v>701291</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5331,13 @@
         <v>11811</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5352,13 +5346,13 @@
         <v>37784</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -5367,13 +5361,13 @@
         <v>49594</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5382,13 @@
         <v>416585</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H8" s="7">
         <v>430</v>
@@ -5403,13 +5397,13 @@
         <v>461431</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M8" s="7">
         <v>722</v>
@@ -5418,13 +5412,13 @@
         <v>878017</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5486,13 @@
         <v>33318</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -5507,13 +5501,13 @@
         <v>45987</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -5522,13 +5516,13 @@
         <v>79305</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5537,13 @@
         <v>523934</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H11" s="7">
         <v>780</v>
@@ -5558,13 +5552,13 @@
         <v>564460</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M11" s="7">
         <v>1297</v>
@@ -5573,13 +5567,13 @@
         <v>1088394</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,13 +5641,13 @@
         <v>51923</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -5662,13 +5656,13 @@
         <v>97118</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -5677,13 +5671,13 @@
         <v>149041</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5692,13 @@
         <v>672067</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H14" s="7">
         <v>992</v>
@@ -5713,28 +5707,28 @@
         <v>650143</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>1607</v>
       </c>
       <c r="N14" s="7">
-        <v>1322210</v>
+        <v>1322211</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,7 +5770,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5802,13 +5796,13 @@
         <v>57815</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>172</v>
@@ -5817,13 +5811,13 @@
         <v>105612</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>232</v>
@@ -5832,13 +5826,13 @@
         <v>163427</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5847,13 @@
         <v>542342</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H17" s="7">
         <v>830</v>
@@ -5868,13 +5862,13 @@
         <v>491451</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>1433</v>
@@ -5883,13 +5877,13 @@
         <v>1033793</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5954,16 +5948,16 @@
         <v>69</v>
       </c>
       <c r="D19" s="7">
-        <v>45690</v>
+        <v>45689</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H19" s="7">
         <v>261</v>
@@ -5972,13 +5966,13 @@
         <v>147023</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M19" s="7">
         <v>330</v>
@@ -5987,13 +5981,13 @@
         <v>192713</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6002,13 @@
         <v>652065</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H20" s="7">
         <v>1447</v>
@@ -6023,13 +6017,13 @@
         <v>879614</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M20" s="7">
         <v>2406</v>
@@ -6038,13 +6032,13 @@
         <v>1531679</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6056,7 +6050,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6112,13 +6106,13 @@
         <v>209266</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>301</v>
+        <v>160</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7">
         <v>692</v>
@@ -6127,13 +6121,13 @@
         <v>456158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>915</v>
@@ -6142,13 +6136,13 @@
         <v>665425</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6157,13 @@
         <v>3175962</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>309</v>
+        <v>168</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H23" s="7">
         <v>4675</v>
@@ -6178,28 +6172,28 @@
         <v>3379423</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M23" s="7">
         <v>7828</v>
       </c>
       <c r="N23" s="7">
-        <v>6555383</v>
+        <v>6555384</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,7 +6235,7 @@
         <v>8743</v>
       </c>
       <c r="N24" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
